--- a/doc/solr表设计.xlsx
+++ b/doc/solr表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>solr用户表设计</t>
   </si>
@@ -149,19 +149,16 @@
     <t>定时从redis刷出</t>
   </si>
   <si>
-    <t>login_longitude</t>
-  </si>
-  <si>
-    <t>最近登录经度</t>
+    <t>login_location</t>
+  </si>
+  <si>
+    <t>最近登录位置</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>login_latitude</t>
-  </si>
-  <si>
-    <t>最近登录纬度</t>
+    <t>通过消息通知刷新 格式(纬度,经度):40.461514,114.006337</t>
   </si>
   <si>
     <t>mobile</t>
@@ -236,9 +233,6 @@
     <t>发布人</t>
   </si>
   <si>
-    <t>nickName</t>
-  </si>
-  <si>
     <t>发布人昵称</t>
   </si>
   <si>
@@ -260,16 +254,13 @@
     <t>阅读数</t>
   </si>
   <si>
-    <t>pub_longitude</t>
-  </si>
-  <si>
-    <t>动态发布位置-经度</t>
-  </si>
-  <si>
-    <t>pub_latitude</t>
-  </si>
-  <si>
-    <t>动态发布位置-纬度</t>
+    <t>pub_location</t>
+  </si>
+  <si>
+    <t>动态发布位置</t>
+  </si>
+  <si>
+    <t>格式(纬度,经度):40.461514,114.006337</t>
   </si>
   <si>
     <t>hasVideo</t>
@@ -331,10 +322,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -348,33 +339,42 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,22 +390,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,8 +418,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,67 +472,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -511,25 +501,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,151 +645,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,6 +692,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -716,6 +745,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,67 +787,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,137 +812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +954,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1478,7 +1471,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="99.75" spans="1:5">
+    <row r="15" ht="28.5" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1560,47 +1553,45 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -1612,25 +1603,27 @@
     </row>
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1639,32 +1632,32 @@
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -1673,75 +1666,75 @@
         <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1749,16 +1742,13 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1768,14 +1758,14 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>71</v>
+      <c r="A35" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1789,7 +1779,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1823,43 +1813,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1867,10 +1860,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -1881,33 +1874,36 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1915,27 +1911,27 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
       <c r="D46" t="s">
         <v>9</v>
-      </c>
-      <c r="E46" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1946,13 +1942,13 @@
         <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1960,7 +1956,7 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1969,55 +1965,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
